--- a/data/labeled_claims/diesel_price_liter_claims.xlsx
+++ b/data/labeled_claims/diesel_price_liter_claims.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="714">
   <si>
     <t>Y</t>
   </si>
@@ -2166,6 +2166,9 @@
   </si>
   <si>
     <t>extracted_value</t>
+  </si>
+  <si>
+    <t>sentence</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2565,7 @@
   <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2574,6 +2577,9 @@
       <c r="A1" t="s">
         <v>710</v>
       </c>
+      <c r="C1" t="s">
+        <v>713</v>
+      </c>
       <c r="D1" t="s">
         <v>708</v>
       </c>

--- a/data/labeled_claims/diesel_price_liter_claims.xlsx
+++ b/data/labeled_claims/diesel_price_liter_claims.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="715">
   <si>
     <t>Y</t>
   </si>
@@ -2169,6 +2169,9 @@
   </si>
   <si>
     <t>sentence</t>
+  </si>
+  <si>
+    <t>dep</t>
   </si>
 </sst>
 </file>
@@ -2565,7 +2568,7 @@
   <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2589,6 +2592,9 @@
       <c r="G1" t="s">
         <v>711</v>
       </c>
+      <c r="I1" t="s">
+        <v>714</v>
+      </c>
       <c r="J1" t="s">
         <v>712</v>
       </c>
